--- a/raw_data/small.xlsx
+++ b/raw_data/small.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maicius/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maicius/code/IntelligentMachine/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID779</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AH54"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="AH55" sqref="AH55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5981,7 +5985,15 @@
       </c>
       <c r="AG54" s="1"/>
       <c r="AH54" s="1">
-        <v>2.9133379696561534</v>
+        <v>2.9133379696561499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>2.9133379696561499</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/small.xlsx
+++ b/raw_data/small.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maicius/code/IntelligentMachine/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maicius/code/IntelligentMachine/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -320,7 +320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -331,6 +331,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -354,8 +372,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -363,8 +383,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -641,13 +663,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="AH55" sqref="AH55"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="X47" sqref="X47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
@@ -945,7 +967,9 @@
       <c r="AF3" s="1">
         <v>20170729</v>
       </c>
-      <c r="AG3" s="1"/>
+      <c r="AG3" s="1">
+        <v>18.399999999999999</v>
+      </c>
       <c r="AH3" s="1">
         <v>2.9550922353915019</v>
       </c>
@@ -1043,7 +1067,9 @@
       <c r="AF4" s="1">
         <v>20170729</v>
       </c>
-      <c r="AG4" s="1"/>
+      <c r="AG4" s="1">
+        <v>18.399999999999999</v>
+      </c>
       <c r="AH4" s="1">
         <v>2.7412641668604247</v>
       </c>
@@ -1141,7 +1167,9 @@
       <c r="AF5" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG5" s="1"/>
+      <c r="AG5" s="1">
+        <v>18.399999999999999</v>
+      </c>
       <c r="AH5" s="1">
         <v>2.7993359320734359</v>
       </c>
@@ -1239,7 +1267,9 @@
       <c r="AF6" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG6" s="1"/>
+      <c r="AG6" s="1">
+        <v>19.2</v>
+      </c>
       <c r="AH6" s="1">
         <v>2.6920925296907949</v>
       </c>
@@ -1337,7 +1367,9 @@
       <c r="AF7" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG7" s="1"/>
+      <c r="AG7" s="1">
+        <v>18.399999999999999</v>
+      </c>
       <c r="AH7" s="1">
         <v>2.6258530534421216</v>
       </c>
@@ -1435,7 +1467,9 @@
       <c r="AF8" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG8" s="1"/>
+      <c r="AG8" s="1">
+        <v>19.2</v>
+      </c>
       <c r="AH8" s="1">
         <v>2.6980066614278413</v>
       </c>
@@ -1734,7 +1768,7 @@
         <v>20170727</v>
       </c>
       <c r="AG11" s="1">
-        <v>18.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="AH11" s="1">
         <v>2.8512423746861248</v>
@@ -1933,7 +1967,9 @@
       <c r="AF13" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG13" s="1"/>
+      <c r="AG13" s="1">
+        <v>18.399999999999999</v>
+      </c>
       <c r="AH13" s="1">
         <v>2.765984475765674</v>
       </c>
@@ -2031,7 +2067,9 @@
       <c r="AF14" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG14" s="1"/>
+      <c r="AG14" s="1">
+        <v>18.399999999999999</v>
+      </c>
       <c r="AH14" s="1">
         <v>2.6761605040565613</v>
       </c>
@@ -2129,7 +2167,9 @@
       <c r="AF15" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG15" s="1"/>
+      <c r="AG15" s="1">
+        <v>18.399999999999999</v>
+      </c>
       <c r="AH15" s="1">
         <v>2.7171605039681719</v>
       </c>
@@ -2227,7 +2267,9 @@
       <c r="AF16" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG16" s="1"/>
+      <c r="AG16" s="1">
+        <v>19.2</v>
+      </c>
       <c r="AH16" s="1">
         <v>2.7589083000209333</v>
       </c>
@@ -2325,7 +2367,9 @@
       <c r="AF17" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG17" s="1"/>
+      <c r="AG17" s="1">
+        <v>19.2</v>
+      </c>
       <c r="AH17" s="1">
         <v>2.7207090422267663</v>
       </c>
@@ -2423,7 +2467,9 @@
       <c r="AF18" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG18" s="1"/>
+      <c r="AG18" s="1">
+        <v>18.399999999999999</v>
+      </c>
       <c r="AH18" s="1">
         <v>2.7906792686694168</v>
       </c>
@@ -2619,7 +2665,9 @@
       <c r="AF20" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG20" s="1"/>
+      <c r="AG20" s="1">
+        <v>18.399999999999999</v>
+      </c>
       <c r="AH20" s="1">
         <v>2.7928995990753416</v>
       </c>
@@ -2815,7 +2863,9 @@
       <c r="AF22" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG22" s="1"/>
+      <c r="AG22" s="1">
+        <v>18.399999999999999</v>
+      </c>
       <c r="AH22" s="1">
         <v>2.741182235272722</v>
       </c>
@@ -2857,9 +2907,7 @@
       <c r="L23" s="1">
         <v>22.9</v>
       </c>
-      <c r="M23" s="1">
-        <v>13.42</v>
-      </c>
+      <c r="M23" s="1"/>
       <c r="N23" s="1">
         <v>0.57099999999999995</v>
       </c>
@@ -3011,7 +3059,9 @@
       <c r="AF24" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG24" s="1"/>
+      <c r="AG24" s="1">
+        <v>18.399999999999999</v>
+      </c>
       <c r="AH24" s="1">
         <v>2.9391182049311162</v>
       </c>
@@ -3407,7 +3457,9 @@
       <c r="AF28" s="1">
         <v>20170728</v>
       </c>
-      <c r="AG28" s="1"/>
+      <c r="AG28" s="1">
+        <v>19.2</v>
+      </c>
       <c r="AH28" s="1">
         <v>2.7982000743591668</v>
       </c>
@@ -3600,9 +3652,7 @@
       <c r="AE30" s="1">
         <v>5</v>
       </c>
-      <c r="AF30" s="1">
-        <v>20170727</v>
-      </c>
+      <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
       <c r="AH30" s="1">
         <v>2.9869167245057069</v>
@@ -3949,18 +3999,14 @@
       <c r="N34" s="1">
         <v>0.503</v>
       </c>
-      <c r="O34" s="1">
-        <v>8.6999999999999994E-2</v>
-      </c>
+      <c r="O34" s="1"/>
       <c r="P34" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="Q34" s="1">
         <v>14</v>
       </c>
-      <c r="R34" s="1">
-        <v>14</v>
-      </c>
+      <c r="R34" s="1"/>
       <c r="S34" s="1">
         <v>14.8</v>
       </c>
@@ -4097,7 +4143,9 @@
       <c r="AF35" s="1">
         <v>20170730</v>
       </c>
-      <c r="AG35" s="1"/>
+      <c r="AG35" s="1">
+        <v>19.2</v>
+      </c>
       <c r="AH35" s="1">
         <v>2.4856515600890252</v>
       </c>
@@ -4196,7 +4244,7 @@
         <v>20170729</v>
       </c>
       <c r="AG36" s="1">
-        <v>18.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="AH36" s="1">
         <v>2.6785604953903777</v>
@@ -4296,7 +4344,7 @@
         <v>20170729</v>
       </c>
       <c r="AG37" s="1">
-        <v>18.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="AH37" s="1">
         <v>2.5646403754042928</v>
@@ -4336,15 +4384,11 @@
       <c r="K38" s="1">
         <v>-0.13</v>
       </c>
-      <c r="L38" s="1">
-        <v>26.7</v>
-      </c>
+      <c r="L38" s="1"/>
       <c r="M38" s="1">
         <v>26.74</v>
       </c>
-      <c r="N38" s="1">
-        <v>0.57099999999999995</v>
-      </c>
+      <c r="N38" s="1"/>
       <c r="O38" s="1">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -4696,7 +4740,7 @@
         <v>20170728</v>
       </c>
       <c r="AG41" s="1">
-        <v>18.399999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="AH41" s="1">
         <v>2.6891574403316874</v>
@@ -4781,9 +4825,7 @@
       <c r="Z42" s="1">
         <v>1E-10</v>
       </c>
-      <c r="AA42" s="1">
-        <v>1E-10</v>
-      </c>
+      <c r="AA42" s="1"/>
       <c r="AB42" s="1">
         <v>2</v>
       </c>
@@ -4995,7 +5037,9 @@
       <c r="AF44" s="1">
         <v>20170727</v>
       </c>
-      <c r="AG44" s="1"/>
+      <c r="AG44" s="1">
+        <v>19.2</v>
+      </c>
       <c r="AH44" s="1">
         <v>3.1303385568781668</v>
       </c>
@@ -5093,7 +5137,9 @@
       <c r="AF45" s="1">
         <v>20170727</v>
       </c>
-      <c r="AG45" s="1"/>
+      <c r="AG45" s="1">
+        <v>19.2</v>
+      </c>
       <c r="AH45" s="1">
         <v>3.0988871030967515</v>
       </c>
@@ -5132,9 +5178,7 @@
       <c r="K46" s="1">
         <v>0.06</v>
       </c>
-      <c r="L46" s="1">
-        <v>26.8</v>
-      </c>
+      <c r="L46" s="1"/>
       <c r="M46" s="1">
         <v>24.2</v>
       </c>
@@ -5268,9 +5312,7 @@
       <c r="W47" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="X47" s="1">
-        <v>1.4E-5</v>
-      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>32</v>
       </c>
@@ -5689,7 +5731,9 @@
       <c r="AF51" s="1">
         <v>20170727</v>
       </c>
-      <c r="AG51" s="1"/>
+      <c r="AG51" s="1">
+        <v>19.2</v>
+      </c>
       <c r="AH51" s="1">
         <v>2.9387039084021258</v>
       </c>
@@ -5787,7 +5831,9 @@
       <c r="AF52" s="1">
         <v>20170729</v>
       </c>
-      <c r="AG52" s="1"/>
+      <c r="AG52" s="1">
+        <v>19.2</v>
+      </c>
       <c r="AH52" s="1">
         <v>2.9474808531410486</v>
       </c>
@@ -5885,7 +5931,9 @@
       <c r="AF53" s="1">
         <v>20170727</v>
       </c>
-      <c r="AG53" s="1"/>
+      <c r="AG53" s="1">
+        <v>19.2</v>
+      </c>
       <c r="AH53" s="1">
         <v>2.7408277046929994</v>
       </c>
@@ -5992,6 +6040,92 @@
       <c r="A55" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="1">
+        <v>99.48</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.333</v>
+      </c>
+      <c r="G55" s="1">
+        <v>57.63</v>
+      </c>
+      <c r="H55" s="1">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-0.18</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="L55" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="M55" s="1">
+        <v>13.82</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="O55" s="1">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P55" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>14</v>
+      </c>
+      <c r="R55" s="1">
+        <v>14</v>
+      </c>
+      <c r="S55" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="T55" s="1">
+        <v>20170803092414</v>
+      </c>
+      <c r="U55" s="1">
+        <v>0</v>
+      </c>
+      <c r="V55" s="1">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X55" s="1">
+        <v>4.3000000000000003E-6</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF55" s="1">
+        <v>20170729</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>19.2</v>
+      </c>
       <c r="AH55" s="1">
         <v>2.9133379696561499</v>
       </c>
@@ -5999,5 +6133,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>